--- a/titlePilotStudy/data/ROM.xlsx
+++ b/titlePilotStudy/data/ROM.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roxana\Desktop\CONFERINTE toamna 2019\malaga 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,69 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="Q2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+name + job? 
+Job should only be counted as "other"
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+job description turned into a name
+(no actual name)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="211">
   <si>
     <t>Identifier</t>
   </si>
@@ -56,6 +117,39 @@
     <t>Reprints</t>
   </si>
   <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>placeEntity</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>personEntity</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>otherEntity</t>
+  </si>
+  <si>
+    <t>twoContentElement</t>
+  </si>
+  <si>
+    <t>contentElementConnection</t>
+  </si>
+  <si>
+    <t>genreIndicator</t>
+  </si>
+  <si>
+    <t>indicatorEntity</t>
+  </si>
+  <si>
     <t>ROM001</t>
   </si>
   <si>
@@ -80,13 +174,31 @@
     <t>low</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>interpunc</t>
+  </si>
+  <si>
+    <t>nuvelă</t>
+  </si>
+  <si>
     <t>ROM002</t>
   </si>
   <si>
     <t>(short)</t>
   </si>
   <si>
-    <t>Blestemul</t>
+    <t>Blestemul.  Poveste născocită de S.B.</t>
   </si>
   <si>
     <t>Bălănescu, Simion (?-?)</t>
@@ -95,13 +207,16 @@
     <t>M</t>
   </si>
   <si>
+    <t>none</t>
+  </si>
+  <si>
     <t>ROM003</t>
   </si>
   <si>
     <t>1895 (T3)</t>
   </si>
   <si>
-    <t>Sfârșitul blestemului</t>
+    <t>Sfârșitul blestemului. Poveste născocită de Simeon Bălănescu</t>
   </si>
   <si>
     <t>Bălănescu, Simeon (?-?)</t>
@@ -128,6 +243,9 @@
     <t>high</t>
   </si>
   <si>
+    <t>haiducul</t>
+  </si>
+  <si>
     <t>ROM005</t>
   </si>
   <si>
@@ -152,6 +270,12 @@
     <t>Popescu, N.D. (1843-1921)</t>
   </si>
   <si>
+    <t>plasă</t>
+  </si>
+  <si>
+    <t>iancu jianu</t>
+  </si>
+  <si>
     <t>ROM007</t>
   </si>
   <si>
@@ -179,6 +303,12 @@
     <t>Macedonski, Alexandru (1854-1920)</t>
   </si>
   <si>
+    <t>thalassa</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
     <t>ROM010</t>
   </si>
   <si>
@@ -194,6 +324,9 @@
     <t>Vlahuță, Alexandru (1858-1919)</t>
   </si>
   <si>
+    <t>dan</t>
+  </si>
+  <si>
     <t>ROM011</t>
   </si>
   <si>
@@ -206,6 +339,15 @@
     <t>Grandea, Grigore H. (1843-1897)</t>
   </si>
   <si>
+    <t>fulga</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
     <t>ROM012</t>
   </si>
   <si>
@@ -242,18 +384,39 @@
     <t>Don Juanii din București</t>
   </si>
   <si>
+    <t>bucurești</t>
+  </si>
+  <si>
+    <t>don juanii</t>
+  </si>
+  <si>
     <t>ROM016</t>
   </si>
   <si>
     <t>1984 (1855) (T1)</t>
   </si>
   <si>
-    <t>Manoil</t>
+    <r>
+      <t>Manoil.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Roman Național</t>
+    </r>
   </si>
   <si>
     <t>Bolintineanu, Dimitrie (1819-1872)</t>
   </si>
   <si>
+    <t>manoil</t>
+  </si>
+  <si>
     <t>ROM017</t>
   </si>
   <si>
@@ -263,6 +426,12 @@
     <t>Elena. Roman original de datine politic filosofic</t>
   </si>
   <si>
+    <t>elena</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
     <t>ROM018</t>
   </si>
   <si>
@@ -284,6 +453,12 @@
     <t>Demetrius, V. (1878-1942)</t>
   </si>
   <si>
+    <t>matei dumbărău</t>
+  </si>
+  <si>
+    <t>roman</t>
+  </si>
+  <si>
     <t>ROM020</t>
   </si>
   <si>
@@ -299,6 +474,9 @@
     <t>Păcatul Rabinului. Roman</t>
   </si>
   <si>
+    <t>rabinului</t>
+  </si>
+  <si>
     <t>ROM022</t>
   </si>
   <si>
@@ -335,6 +513,9 @@
     <t>Dumbravă, Bucura (1868-1926)</t>
   </si>
   <si>
+    <t>pandurul</t>
+  </si>
+  <si>
     <t>ROM025</t>
   </si>
   <si>
@@ -356,6 +537,9 @@
     <t>Macri, P. Panait (1863-1932)</t>
   </si>
   <si>
+    <t>bostan</t>
+  </si>
+  <si>
     <t>ROM027</t>
   </si>
   <si>
@@ -368,6 +552,12 @@
     <t>Baronzi, G. (1828-1896)</t>
   </si>
   <si>
+    <t>fontana</t>
+  </si>
+  <si>
+    <t>zânelor</t>
+  </si>
+  <si>
     <t>ROM028</t>
   </si>
   <si>
@@ -404,6 +594,9 @@
     <t>Boerescu, C. (1836-1908)</t>
   </si>
   <si>
+    <t>aldo, aminta</t>
+  </si>
+  <si>
     <t>ROM037</t>
   </si>
   <si>
@@ -413,53 +606,147 @@
     <t>Radu Anghel, Căpitan de Tâlhari</t>
   </si>
   <si>
-    <t>place</t>
-  </si>
-  <si>
-    <t>placeEntity</t>
-  </si>
-  <si>
-    <t>person</t>
-  </si>
-  <si>
-    <t>personEntity</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>otherEntity</t>
-  </si>
-  <si>
-    <t>twoContentElement</t>
-  </si>
-  <si>
-    <t>contentElementConnection</t>
-  </si>
-  <si>
-    <t>genreIndicator</t>
-  </si>
-  <si>
-    <t>indicatorEntity</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>word</t>
+    <t>radu anghel, tâlhari</t>
+  </si>
+  <si>
+    <t>placeAttribution</t>
+  </si>
+  <si>
+    <t>placeDeterminer</t>
+  </si>
+  <si>
+    <t>personStatus</t>
+  </si>
+  <si>
+    <t>personAttribution</t>
+  </si>
+  <si>
+    <t>personDeterminer</t>
+  </si>
+  <si>
+    <t>otherEntitityDeterminer</t>
+  </si>
+  <si>
+    <t>otherEntitityAttribution</t>
+  </si>
+  <si>
+    <t>roșcan</t>
+  </si>
+  <si>
+    <t>blestemul</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> haiducul</t>
+  </si>
+  <si>
+    <t>blestemului</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>ghiță cătănuță</t>
+  </si>
+  <si>
+    <t>haiduci</t>
+  </si>
+  <si>
+    <t>indef</t>
+  </si>
+  <si>
+    <t>căpitan</t>
+  </si>
+  <si>
+    <t>zapciu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boierii </t>
+  </si>
+  <si>
+    <t>ideal, real</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vlăsia,ciocoii </t>
+  </si>
+  <si>
+    <t>sobei</t>
+  </si>
+  <si>
+    <t>catastihul, amorului</t>
+  </si>
+  <si>
+    <t>don</t>
+  </si>
+  <si>
+    <t>doritorii</t>
+  </si>
+  <si>
+    <t>orașul</t>
+  </si>
+  <si>
+    <t>bucuriei</t>
+  </si>
+  <si>
+    <t>păcatul</t>
+  </si>
+  <si>
+    <t>țandură</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haiducul </t>
+  </si>
+  <si>
+    <t>fulger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tîlharul </t>
+  </si>
+  <si>
+    <t>mistere</t>
+  </si>
+  <si>
+    <t>suflete</t>
+  </si>
+  <si>
+    <t>milcov</t>
+  </si>
+  <si>
+    <t>haiduc</t>
+  </si>
+  <si>
+    <t>bărbatul</t>
+  </si>
+  <si>
+    <t>misterele, căsătoriei</t>
+  </si>
+  <si>
+    <t>tâlhari</t>
+  </si>
+  <si>
+    <t>poveste</t>
+  </si>
+  <si>
+    <t>nuvela</t>
+  </si>
+  <si>
+    <t>scriere</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -476,6 +763,25 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -500,23 +806,41 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -532,7 +856,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -793,16 +1117,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="S1" sqref="S1"/>
+      <selection pane="bottomLeft" activeCell="AB35" sqref="AB35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,45 +1160,66 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3">
         <v>128</v>
@@ -881,46 +1228,80 @@
         <v>9817</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="O2" s="3"/>
-      <c r="R2" t="s">
-        <v>140</v>
-      </c>
-      <c r="S2" t="s">
-        <v>141</v>
-      </c>
-      <c r="T2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>177</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3">
         <v>67</v>
@@ -929,43 +1310,77 @@
         <v>8705</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="R3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" t="s">
+        <v>178</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="O3" s="3"/>
-      <c r="R3" t="s">
-        <v>140</v>
-      </c>
-      <c r="T3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C4" s="3">
         <v>128</v>
@@ -974,43 +1389,77 @@
         <v>21505</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>25</v>
+        <v>42</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="R4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" t="s">
+        <v>180</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="O4" s="3"/>
-      <c r="R4" t="s">
-        <v>140</v>
-      </c>
-      <c r="T4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C5" s="3">
         <v>507</v>
@@ -1019,42 +1468,77 @@
         <v>124789</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="T5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="R5" t="s">
-        <v>140</v>
-      </c>
-      <c r="T5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="U5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3">
         <v>95</v>
@@ -1063,42 +1547,78 @@
         <v>28565</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="R6" t="s">
-        <v>140</v>
-      </c>
-      <c r="T6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="144" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C7" s="3">
         <v>121</v>
@@ -1107,42 +1627,82 @@
         <v>32240</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="R7" t="s">
-        <v>140</v>
-      </c>
-      <c r="T7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C8" s="3">
         <v>143</v>
@@ -1151,42 +1711,82 @@
         <v>35873</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="R8" t="s">
-        <v>140</v>
-      </c>
-      <c r="T8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C9" s="3">
         <v>136</v>
@@ -1195,42 +1795,80 @@
         <v>31921</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="R9" t="s">
-        <v>140</v>
-      </c>
-      <c r="T9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C10" s="3">
         <v>70</v>
@@ -1239,42 +1877,74 @@
         <v>28944</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="R10" t="s">
-        <v>140</v>
-      </c>
-      <c r="T10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C11" s="3">
         <v>199</v>
@@ -1283,42 +1953,74 @@
         <v>63856</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="I11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="R11" t="s">
-        <v>140</v>
-      </c>
-      <c r="T11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C12" s="3">
         <v>97</v>
@@ -1327,42 +2029,77 @@
         <v>29817</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="R12" t="s">
-        <v>140</v>
-      </c>
-      <c r="T12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C13" s="3">
         <v>167</v>
@@ -1371,42 +2108,77 @@
         <v>56691</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="I13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V13" s="4"/>
+      <c r="W13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="R13" t="s">
-        <v>140</v>
-      </c>
-      <c r="T13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C14" s="3">
         <v>235</v>
@@ -1415,42 +2187,73 @@
         <v>56507</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="I14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="R14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="R14" t="s">
-        <v>140</v>
-      </c>
-      <c r="T14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C15" s="3">
         <v>129</v>
@@ -1459,42 +2262,74 @@
         <v>26030</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="R15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="V15" t="s">
+        <v>191</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="R15" t="s">
-        <v>140</v>
-      </c>
-      <c r="T15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C16" s="3">
         <v>67</v>
@@ -1503,42 +2338,78 @@
         <v>22860</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="R16" t="s">
-        <v>140</v>
-      </c>
-      <c r="T16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C17" s="3">
         <v>120</v>
@@ -1547,42 +2418,77 @@
         <v>36282</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="I17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="87" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="R17" t="s">
-        <v>140</v>
-      </c>
-      <c r="T17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="72" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C18" s="3">
         <v>202</v>
@@ -1591,42 +2497,77 @@
         <v>65702</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="I18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="R18" t="s">
-        <v>140</v>
-      </c>
-      <c r="T18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C19" s="3">
         <v>183</v>
@@ -1635,42 +2576,74 @@
         <v>60232</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="I19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="R19" t="s">
-        <v>140</v>
-      </c>
-      <c r="T19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C20" s="3">
         <v>164</v>
@@ -1679,42 +2652,77 @@
         <v>38783</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="I20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="R20" t="s">
-        <v>140</v>
-      </c>
-      <c r="T20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C21" s="3">
         <v>189</v>
@@ -1723,42 +2731,79 @@
         <v>42607</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="I21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" s="3"/>
+      <c r="R21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V21" t="s">
+        <v>195</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="R21" t="s">
-        <v>140</v>
-      </c>
-      <c r="T21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C22" s="3">
         <v>117</v>
@@ -1767,42 +2812,82 @@
         <v>23575</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="I22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="116" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="R22" t="s">
-        <v>140</v>
-      </c>
-      <c r="T22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C23" s="3">
         <v>116</v>
@@ -1811,42 +2896,80 @@
         <v>29807</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="I23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="R23" t="s">
-        <v>140</v>
-      </c>
-      <c r="T23" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C24" s="3">
         <v>142</v>
@@ -1855,42 +2978,80 @@
         <v>23370</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="I24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="R24" t="s">
-        <v>140</v>
-      </c>
-      <c r="T24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C25" s="3">
         <v>381</v>
@@ -1899,42 +3060,77 @@
         <v>111825</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="R25" t="s">
-        <v>140</v>
-      </c>
-      <c r="T25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C26" s="3">
         <v>435</v>
@@ -1943,42 +3139,76 @@
         <v>150879</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I26" s="3" t="s">
+      <c r="K26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" s="3"/>
+      <c r="R26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="R26" t="s">
-        <v>140</v>
-      </c>
-      <c r="T26" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C27" s="3">
         <v>144</v>
@@ -1987,42 +3217,79 @@
         <v>35076</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="I27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="R27" t="s">
-        <v>140</v>
-      </c>
-      <c r="T27" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C28" s="3">
         <v>160</v>
@@ -2031,42 +3298,76 @@
         <v>40841</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="I28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="R28" t="s">
-        <v>140</v>
-      </c>
-      <c r="T28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C29" s="3">
         <v>219</v>
@@ -2075,42 +3376,74 @@
         <v>56161</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="I29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="T29" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="R29" t="s">
-        <v>140</v>
-      </c>
-      <c r="T29" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="72" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C30" s="3">
         <v>179</v>
@@ -2119,42 +3452,77 @@
         <v>42050</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="I30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="M30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="S30" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="X30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="R30" t="s">
-        <v>140</v>
-      </c>
-      <c r="T30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C31" s="3">
         <v>164</v>
@@ -2163,42 +3531,74 @@
         <v>43740</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>124</v>
+        <v>162</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="I31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T31" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="R31" t="s">
-        <v>140</v>
-      </c>
-      <c r="T31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C32" s="3">
         <v>161</v>
@@ -2207,49 +3607,367 @@
         <v>55720</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="R32" t="s">
-        <v>140</v>
-      </c>
-      <c r="T32" t="s">
-        <v>140</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+    </row>
+    <row r="34" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+    </row>
+    <row r="35" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+    </row>
+    <row r="36" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+    </row>
+    <row r="37" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+    </row>
+    <row r="38" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+    </row>
+    <row r="39" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="M40" s="5"/>
+      <c r="N40" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R40" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S40" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+    </row>
+    <row r="42" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+    </row>
+    <row r="43" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+    </row>
+    <row r="44" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+    </row>
+    <row r="45" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+    </row>
+    <row r="46" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+    </row>
+    <row r="47" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+    </row>
+    <row r="48" spans="13:24" x14ac:dyDescent="0.35">
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+    </row>
+    <row r="49" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+    </row>
+    <row r="50" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+    </row>
+    <row r="51" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+    </row>
+    <row r="52" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+    </row>
+    <row r="53" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+    </row>
+    <row r="54" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+    </row>
+    <row r="55" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+    </row>
+    <row r="58" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+    </row>
+    <row r="59" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+    </row>
+    <row r="60" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+    </row>
+    <row r="61" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+    </row>
+    <row r="62" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+    </row>
+    <row r="63" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+    </row>
+    <row r="64" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+    </row>
+    <row r="65" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+    </row>
+    <row r="66" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+    </row>
+    <row r="67" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+    </row>
+    <row r="69" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+    </row>
+    <row r="70" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+    </row>
+    <row r="71" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W71" s="7"/>
+      <c r="X71" s="7"/>
+    </row>
+    <row r="72" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W72" s="7"/>
+      <c r="X72" s="7"/>
+    </row>
+    <row r="73" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+    </row>
+    <row r="74" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W74" s="7"/>
+      <c r="X74" s="7"/>
+    </row>
+    <row r="75" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+    </row>
+    <row r="76" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W76" s="7"/>
+      <c r="X76" s="7"/>
+    </row>
+    <row r="77" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W77" s="7"/>
+      <c r="X77" s="7"/>
+    </row>
+    <row r="78" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W78" s="7"/>
+      <c r="X78" s="7"/>
+    </row>
+    <row r="79" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
+    </row>
+    <row r="80" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W80" s="7"/>
+      <c r="X80" s="7"/>
+    </row>
+    <row r="81" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W81" s="7"/>
+      <c r="X81" s="7"/>
+    </row>
+    <row r="82" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W82" s="7"/>
+      <c r="X82" s="7"/>
+    </row>
+    <row r="83" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W83" s="7"/>
+      <c r="X83" s="7"/>
+    </row>
+    <row r="84" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W84" s="7"/>
+      <c r="X84" s="7"/>
+    </row>
+    <row r="85" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
+    </row>
+    <row r="86" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W86" s="7"/>
+      <c r="X86" s="7"/>
+    </row>
+    <row r="87" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W87" s="7"/>
+      <c r="X87" s="7"/>
+    </row>
+    <row r="88" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W88" s="7"/>
+      <c r="X88" s="7"/>
+    </row>
+    <row r="89" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W89" s="7"/>
+      <c r="X89" s="7"/>
+    </row>
+    <row r="90" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W90" s="7"/>
+      <c r="X90" s="7"/>
+    </row>
+    <row r="91" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W91" s="7"/>
+      <c r="X91" s="7"/>
+    </row>
+    <row r="92" spans="23:24" x14ac:dyDescent="0.35">
+      <c r="W92" s="7"/>
+      <c r="X92" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576 M1:M1048576 R1:R1048576 T1:T1048576">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z32">
+      <formula1>"interpunc,word,none"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U32">
+      <formula1>"one,more,no"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T32">
+      <formula1>"m,f,d,no"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K32 R1:R1048576 Y1:Y32 AA1:AA32 O1:O32 M1:M1048576 X1:X70">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
-      <formula1>"m,f,d,no"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576">
-      <formula1>"one,more,no"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576">
-      <formula1>"interpunc,word,none"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576 N1:N1048576 W1:W70">
+      <formula1>"def,indef,no"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -2286,5 +4004,7 @@
     <hyperlink ref="A32" r:id="rId31" display="https://distantreading.github.io/ELTeC/rom/ROM037.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId32"/>
+  <legacyDrawing r:id="rId33"/>
 </worksheet>
 </file>
--- a/titlePilotStudy/data/ROM.xlsx
+++ b/titlePilotStudy/data/ROM.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roxana\Desktop\CONFERINTE toamna 2019\malaga 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HU-BOX\Seafile\COST\dataTitleStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="211">
   <si>
     <t>Identifier</t>
   </si>
@@ -808,18 +808,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -831,16 +822,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -856,7 +863,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1120,2837 +1127,3043 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="AB35" sqref="AB35"/>
+      <selection pane="bottomLeft" activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="87" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:28" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="7">
         <v>128</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="7">
         <v>9817</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="3" t="s">
+      <c r="K2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="3" t="s">
+      <c r="R2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="U2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AA2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AA2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="7">
         <v>67</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="7">
         <v>8705</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="3"/>
-      <c r="R3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="K3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="X3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="X3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AA3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB3" t="s">
+      <c r="AA3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" s="9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="87" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:28" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="7">
         <v>128</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="7">
         <v>21505</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="3"/>
-      <c r="R4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="K4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="X4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z4" t="s">
+      <c r="X4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AA4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="AA4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB4" s="9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:28" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="7">
         <v>507</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="7">
         <v>124789</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="3" t="s">
+      <c r="K5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S5" s="5" t="s">
+      <c r="R5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z5" s="3" t="s">
+      <c r="U5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AA5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="AA5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="7">
         <v>95</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="7">
         <v>28565</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="3" t="s">
+      <c r="K6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="R6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" s="3" t="s">
+      <c r="R6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="U6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="V6" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="W6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z6" s="3" t="s">
+      <c r="W6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AA6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="AA6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="7">
         <v>121</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="7">
         <v>32240</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="3" t="s">
+      <c r="K7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="5" t="s">
+      <c r="M7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="3" t="s">
+      <c r="O7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="R7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T7" s="3" t="s">
+      <c r="R7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z7" t="s">
+      <c r="U7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AA7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB7" t="s">
+      <c r="AA7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB7" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="7">
         <v>143</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="7">
         <v>35873</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" s="3" t="s">
+      <c r="K8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="R8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T8" s="3" t="s">
+      <c r="R8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="V8" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z8" t="s">
+      <c r="W8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AA8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB8" t="s">
+      <c r="AA8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB8" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:28" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="7">
         <v>136</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="7">
         <v>31921</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" s="3" t="s">
+      <c r="K9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="R9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S9" s="5" t="s">
+      <c r="R9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="T9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z9" s="3" t="s">
+      <c r="U9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AA9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB9" t="s">
+      <c r="AA9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB9" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="7">
         <v>70</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="7">
         <v>28944</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3" t="s">
+      <c r="K10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="R10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z10" s="3" t="s">
+      <c r="R10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AA10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="AA10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB10" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="7">
         <v>199</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="7">
         <v>63856</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3" t="s">
+      <c r="K11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="R11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T11" s="3" t="s">
+      <c r="R11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z11" s="3" t="s">
+      <c r="U11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AA11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="AA11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB11" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="7">
         <v>97</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="7">
         <v>29817</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3" t="s">
+      <c r="K12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="R12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T12" s="3" t="s">
+      <c r="R12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="U12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="V12" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z12" s="3" t="s">
+      <c r="W12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AA12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="AA12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB12" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="7">
         <v>167</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="7">
         <v>56691</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" s="3" t="s">
+      <c r="K13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="Q13" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="R13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S13" s="5" t="s">
+      <c r="R13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S13" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="T13" s="8" t="s">
+      <c r="T13" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="U13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V13" s="4"/>
-      <c r="W13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z13" s="3" t="s">
+      <c r="U13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AA13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="AA13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB13" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="7">
         <v>235</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="7">
         <v>56507</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="K14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="M14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N14" s="5" t="s">
+      <c r="M14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P14" s="3"/>
-      <c r="R14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="O14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="U14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="W14" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z14" s="3" t="s">
+      <c r="X14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AA14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="AA14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB14" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="7">
         <v>129</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="7">
         <v>26030</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" s="3"/>
-      <c r="R15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U15" s="3" t="s">
+      <c r="K15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="U15" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="V15" t="s">
+      <c r="V15" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="W15" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z15" s="3" t="s">
+      <c r="X15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AA15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="AA15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB15" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="7">
         <v>67</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="7">
         <v>22860</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L16" s="3" t="s">
+      <c r="K16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P16" s="3" t="s">
+      <c r="M16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="Q16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="R16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S16" s="5" t="s">
+      <c r="R16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="T16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z16" s="3" t="s">
+      <c r="U16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="W16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AA16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="AA16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB16" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="7">
         <v>120</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="7">
         <v>36282</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3" t="s">
+      <c r="K17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="R17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T17" s="3" t="s">
+      <c r="R17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z17" s="3" t="s">
+      <c r="U17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="W17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AA17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB17" t="s">
+      <c r="AA17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB17" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="87" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:28" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="7">
         <v>202</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="7">
         <v>65702</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3" t="s">
+      <c r="K18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="R18" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="S18" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T18" s="3" t="s">
+      <c r="R18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T18" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z18" s="3" t="s">
+      <c r="U18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="W18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AA18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB18" t="s">
+      <c r="AA18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB18" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="7">
         <v>183</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="7">
         <v>60232</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3" t="s">
+      <c r="K19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="R19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S19" s="5" t="s">
+      <c r="R19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S19" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="T19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z19" s="3" t="s">
+      <c r="U19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="W19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AA19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="AA19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB19" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="7">
         <v>164</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="7">
         <v>38783</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3" t="s">
+      <c r="K20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="R20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T20" s="3" t="s">
+      <c r="R20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z20" s="3" t="s">
+      <c r="U20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="W20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AA20" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB20" t="s">
+      <c r="AA20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB20" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="7">
         <v>189</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="7">
         <v>42607</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="3" t="s">
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="M21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N21" s="5" t="s">
+      <c r="M21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P21" s="3"/>
-      <c r="R21" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="S21" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U21" s="3" t="s">
+      <c r="O21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="U21" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="V21" t="s">
+      <c r="V21" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="W21" s="3" t="s">
+      <c r="W21" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z21" s="3" t="s">
+      <c r="X21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AA21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB21" t="s">
+      <c r="AA21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB21" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="7">
         <v>117</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="7">
         <v>23575</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P22" s="3" t="s">
+      <c r="K22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="Q22" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="R22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S22" s="5" t="s">
+      <c r="R22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S22" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="T22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="U22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="V22" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="W22" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z22" s="3" t="s">
+      <c r="X22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AA22" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB22" s="3" t="s">
+      <c r="AA22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB22" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="116" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:28" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="7">
         <v>116</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="7">
         <v>29807</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P23" s="3" t="s">
+      <c r="K23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="Q23" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="R23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T23" s="3" t="s">
+      <c r="R23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z23" s="3" t="s">
+      <c r="U23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="W23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z23" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AA23" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB23" t="s">
+      <c r="AA23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB23" s="9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="58" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="7">
         <v>142</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="7">
         <v>23370</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="3" t="s">
+      <c r="K24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="Q24" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="R24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T24" s="3" t="s">
+      <c r="R24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z24" s="3" t="s">
+      <c r="U24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="W24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y24" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AA24" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB24" t="s">
+      <c r="AA24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB24" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="7">
         <v>381</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="7">
         <v>111825</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P25" s="3" t="s">
+      <c r="K25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="Q25" s="8" t="s">
+      <c r="Q25" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="R25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S25" s="5" t="s">
+      <c r="R25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S25" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="T25" s="3" t="s">
+      <c r="T25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z25" s="3" t="s">
+      <c r="U25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="W25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AA25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="AA25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB25" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="7">
         <v>435</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="7">
         <v>150879</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L26" s="3" t="s">
+      <c r="K26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="M26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P26" s="3"/>
-      <c r="R26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U26" s="3" t="s">
+      <c r="M26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="U26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="V26" s="3" t="s">
+      <c r="V26" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z26" s="3" t="s">
+      <c r="W26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AA26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" ht="58" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+      <c r="AA26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB26" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="7">
         <v>144</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="7">
         <v>35076</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L27" s="3" t="s">
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="M27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P27" s="3" t="s">
+      <c r="M27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="Q27" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="R27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T27" s="3" t="s">
+      <c r="R27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z27" s="3" t="s">
+      <c r="U27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="W27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AA27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+      <c r="AA27" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB27" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="7">
         <v>160</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="7">
         <v>40841</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L28" s="3" t="s">
+      <c r="K28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="M28" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N28" s="5" t="s">
+      <c r="M28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="O28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3" t="s">
+      <c r="O28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="R28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S28" s="5" t="s">
+      <c r="R28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S28" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="T28" s="3" t="s">
+      <c r="T28" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="U28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z28" s="3" t="s">
+      <c r="U28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="W28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y28" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z28" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AA28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" ht="58" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+      <c r="AA28" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB28" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="7">
         <v>219</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="7">
         <v>56161</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3" t="s">
+      <c r="K29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="R29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S29" s="5" t="s">
+      <c r="R29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S29" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="T29" s="8" t="s">
+      <c r="T29" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z29" s="3" t="s">
+      <c r="U29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="W29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z29" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AA29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="AA29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB29" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="7">
         <v>179</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="7">
         <v>42050</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L30" s="3"/>
-      <c r="M30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3" t="s">
+      <c r="K30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="R30" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="S30" s="9" t="s">
+      <c r="R30" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="S30" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="T30" s="3" t="s">
+      <c r="T30" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="U30" s="3" t="s">
+      <c r="U30" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="V30" s="3" t="s">
+      <c r="V30" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="W30" s="3" t="s">
+      <c r="W30" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="X30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z30" s="3" t="s">
+      <c r="X30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AA30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+      <c r="AA30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB30" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="7">
         <v>164</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="7">
         <v>43740</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3" t="s">
+      <c r="K31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="R31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T31" s="8" t="s">
+      <c r="R31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T31" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="U31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z31" s="3" t="s">
+      <c r="U31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="W31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z31" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AA31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" ht="58" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+      <c r="AA31" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB31" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="7">
         <v>161</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="7">
         <v>55720</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L32" s="3"/>
-      <c r="M32" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P32" s="3" t="s">
+      <c r="K32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="Q32" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="R32" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S32" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T32" s="3" t="s">
+      <c r="R32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U32" s="3" t="s">
+      <c r="U32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="V32" s="3" t="s">
+      <c r="V32" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z32" s="3" t="s">
+      <c r="W32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y32" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z32" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AA32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-    </row>
-    <row r="34" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-    </row>
-    <row r="35" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-    </row>
-    <row r="36" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-    </row>
-    <row r="37" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-    </row>
-    <row r="38" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-    </row>
-    <row r="39" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="M40" s="5"/>
-      <c r="N40" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R40" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="S40" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-    </row>
-    <row r="42" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-    </row>
-    <row r="43" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-    </row>
-    <row r="44" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-    </row>
-    <row r="45" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-    </row>
-    <row r="46" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
-    </row>
-    <row r="47" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-    </row>
-    <row r="48" spans="13:24" x14ac:dyDescent="0.35">
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-    </row>
-    <row r="49" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-    </row>
-    <row r="50" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-    </row>
-    <row r="51" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W51" s="3"/>
-      <c r="X51" s="3"/>
-    </row>
-    <row r="52" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W52" s="3"/>
-      <c r="X52" s="3"/>
-    </row>
-    <row r="53" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-    </row>
-    <row r="54" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-    </row>
-    <row r="55" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W57" s="3"/>
-      <c r="X57" s="3"/>
-    </row>
-    <row r="58" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W58" s="3"/>
-      <c r="X58" s="3"/>
-    </row>
-    <row r="59" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W59" s="3"/>
-      <c r="X59" s="3"/>
-    </row>
-    <row r="60" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W60" s="3"/>
-      <c r="X60" s="3"/>
-    </row>
-    <row r="61" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W61" s="3"/>
-      <c r="X61" s="3"/>
-    </row>
-    <row r="62" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W62" s="3"/>
-      <c r="X62" s="3"/>
-    </row>
-    <row r="63" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W63" s="3"/>
-      <c r="X63" s="3"/>
-    </row>
-    <row r="64" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W64" s="3"/>
-      <c r="X64" s="3"/>
-    </row>
-    <row r="65" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W65" s="3"/>
-      <c r="X65" s="3"/>
-    </row>
-    <row r="66" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W66" s="3"/>
-      <c r="X66" s="3"/>
-    </row>
-    <row r="67" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W67" s="3"/>
-      <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W68" s="3"/>
-      <c r="X68" s="3"/>
-    </row>
-    <row r="69" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W69" s="3"/>
-      <c r="X69" s="3"/>
-    </row>
-    <row r="70" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W70" s="3"/>
-      <c r="X70" s="3"/>
-    </row>
-    <row r="71" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W71" s="7"/>
-      <c r="X71" s="7"/>
-    </row>
-    <row r="72" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W72" s="7"/>
-      <c r="X72" s="7"/>
-    </row>
-    <row r="73" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W73" s="7"/>
-      <c r="X73" s="7"/>
-    </row>
-    <row r="74" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W74" s="7"/>
-      <c r="X74" s="7"/>
-    </row>
-    <row r="75" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W75" s="7"/>
-      <c r="X75" s="7"/>
-    </row>
-    <row r="76" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W76" s="7"/>
-      <c r="X76" s="7"/>
-    </row>
-    <row r="77" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W77" s="7"/>
-      <c r="X77" s="7"/>
-    </row>
-    <row r="78" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W78" s="7"/>
-      <c r="X78" s="7"/>
-    </row>
-    <row r="79" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W79" s="7"/>
-      <c r="X79" s="7"/>
-    </row>
-    <row r="80" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W80" s="7"/>
-      <c r="X80" s="7"/>
-    </row>
-    <row r="81" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W81" s="7"/>
-      <c r="X81" s="7"/>
-    </row>
-    <row r="82" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W82" s="7"/>
-      <c r="X82" s="7"/>
-    </row>
-    <row r="83" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W83" s="7"/>
-      <c r="X83" s="7"/>
-    </row>
-    <row r="84" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W84" s="7"/>
-      <c r="X84" s="7"/>
-    </row>
-    <row r="85" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W85" s="7"/>
-      <c r="X85" s="7"/>
-    </row>
-    <row r="86" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W86" s="7"/>
-      <c r="X86" s="7"/>
-    </row>
-    <row r="87" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W87" s="7"/>
-      <c r="X87" s="7"/>
-    </row>
-    <row r="88" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W88" s="7"/>
-      <c r="X88" s="7"/>
-    </row>
-    <row r="89" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W89" s="7"/>
-      <c r="X89" s="7"/>
-    </row>
-    <row r="90" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W90" s="7"/>
-      <c r="X90" s="7"/>
-    </row>
-    <row r="91" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W91" s="7"/>
-      <c r="X91" s="7"/>
-    </row>
-    <row r="92" spans="23:24" x14ac:dyDescent="0.35">
-      <c r="W92" s="7"/>
-      <c r="X92" s="7"/>
+      <c r="AA32" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB32" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+    </row>
+    <row r="34" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+    </row>
+    <row r="35" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+    </row>
+    <row r="36" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+    </row>
+    <row r="37" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+    </row>
+    <row r="38" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+    </row>
+    <row r="39" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+    </row>
+    <row r="40" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="M40" s="2"/>
+      <c r="N40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+    </row>
+    <row r="41" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+    </row>
+    <row r="42" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+    </row>
+    <row r="43" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+    </row>
+    <row r="44" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+    </row>
+    <row r="45" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+    </row>
+    <row r="46" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+    </row>
+    <row r="47" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+    </row>
+    <row r="48" spans="13:24" x14ac:dyDescent="0.3">
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+    </row>
+    <row r="49" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+    </row>
+    <row r="50" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+    </row>
+    <row r="51" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+    </row>
+    <row r="52" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+    </row>
+    <row r="53" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+    </row>
+    <row r="54" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+    </row>
+    <row r="55" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+    </row>
+    <row r="56" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+    </row>
+    <row r="57" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+    </row>
+    <row r="58" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+    </row>
+    <row r="59" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+    </row>
+    <row r="60" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+    </row>
+    <row r="61" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+    </row>
+    <row r="62" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+    </row>
+    <row r="63" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+    </row>
+    <row r="64" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+    </row>
+    <row r="65" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+    </row>
+    <row r="66" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+    </row>
+    <row r="67" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+    </row>
+    <row r="68" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+    </row>
+    <row r="69" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+    </row>
+    <row r="70" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+    </row>
+    <row r="71" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W71" s="4"/>
+      <c r="X71" s="4"/>
+    </row>
+    <row r="72" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+    </row>
+    <row r="73" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W73" s="4"/>
+      <c r="X73" s="4"/>
+    </row>
+    <row r="74" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W74" s="4"/>
+      <c r="X74" s="4"/>
+    </row>
+    <row r="75" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W75" s="4"/>
+      <c r="X75" s="4"/>
+    </row>
+    <row r="76" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+    </row>
+    <row r="77" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
+    </row>
+    <row r="78" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+    </row>
+    <row r="79" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W79" s="4"/>
+      <c r="X79" s="4"/>
+    </row>
+    <row r="80" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W80" s="4"/>
+      <c r="X80" s="4"/>
+    </row>
+    <row r="81" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W81" s="4"/>
+      <c r="X81" s="4"/>
+    </row>
+    <row r="82" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W82" s="4"/>
+      <c r="X82" s="4"/>
+    </row>
+    <row r="83" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W83" s="4"/>
+      <c r="X83" s="4"/>
+    </row>
+    <row r="84" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W84" s="4"/>
+      <c r="X84" s="4"/>
+    </row>
+    <row r="85" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W85" s="4"/>
+      <c r="X85" s="4"/>
+    </row>
+    <row r="86" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W86" s="4"/>
+      <c r="X86" s="4"/>
+    </row>
+    <row r="87" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W87" s="4"/>
+      <c r="X87" s="4"/>
+    </row>
+    <row r="88" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W88" s="4"/>
+      <c r="X88" s="4"/>
+    </row>
+    <row r="89" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W89" s="4"/>
+      <c r="X89" s="4"/>
+    </row>
+    <row r="90" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W90" s="4"/>
+      <c r="X90" s="4"/>
+    </row>
+    <row r="91" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W91" s="4"/>
+      <c r="X91" s="4"/>
+    </row>
+    <row r="92" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W92" s="4"/>
+      <c r="X92" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="5">

--- a/titlePilotStudy/data/ROM.xlsx
+++ b/titlePilotStudy/data/ROM.xlsx
@@ -2110,9 +2110,9 @@
   <dimension ref="A1:BF291"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3385,7 +3385,7 @@
         <v>128</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="K8" s="21" t="s">
         <v>26</v>
